--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_random_info[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_random_info[生物随机信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureRandomInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -65,37 +65,52 @@
     <t>角色创建-骷髅</t>
   </si>
   <si>
+    <t>3040001-3040010,3050001-3050010,</t>
+  </si>
+  <si>
+    <t>角色创建-史莱姆</t>
+  </si>
+  <si>
+    <t>4030001-4030010,4050001-4050010,4060001-4060010,4070001-4070010,4080001-4080004</t>
+  </si>
+  <si>
+    <t>角色创建-魅魔</t>
+  </si>
+  <si>
+    <t>5050001-5050011,5070001-5070005</t>
+  </si>
+  <si>
+    <t>角色创建-牛头人</t>
+  </si>
+  <si>
+    <t>6050001-6050010,6060001-6060010</t>
+  </si>
+  <si>
+    <t>角色创建-哥布林</t>
+  </si>
+  <si>
+    <t>7030001-7030002,7050001-7050005,7060001-7060005</t>
+  </si>
+  <si>
+    <t>角色创建-兽人</t>
+  </si>
+  <si>
     <t>人类-通用</t>
   </si>
   <si>
     <t>骷髅-通用</t>
   </si>
   <si>
-    <t>3040001-3040010,3050001-3050010,</t>
-  </si>
-  <si>
     <t>史莱姆-通用</t>
   </si>
   <si>
-    <t>4030001-4030010,4050001-4050010,4060001-4060010,4070001-4070010,4080001-4080004</t>
-  </si>
-  <si>
     <t>魅魔-通用</t>
   </si>
   <si>
-    <t>5050001-5050011,5070001-5070005</t>
-  </si>
-  <si>
     <t>牛头人-通用</t>
   </si>
   <si>
-    <t>6050001-6050010,6060001-6060010</t>
-  </si>
-  <si>
     <t>哥布林-通用</t>
-  </si>
-  <si>
-    <t>7030001-7030002,7050001-7050005,7060001-7060005</t>
   </si>
   <si>
     <t>兽人-通用</t>
@@ -1066,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1136,90 +1151,145 @@
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11">
         <v>1000001</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2000001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>3000001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>4000001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>5000001</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>6000001</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7000001</v>
+        <v>2000001</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3000001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>4000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>5000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>6000001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>7000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="39" ht="12" customHeight="1"/>
     <row r="40" ht="12" customHeight="1"/>
     <row r="41" ht="12" customHeight="1"/>
     <row r="42" ht="12" customHeight="1"/>
+    <row r="43" ht="12" customHeight="1"/>
+    <row r="44" ht="12" customHeight="1"/>
+    <row r="45" ht="12" customHeight="1"/>
+    <row r="46" ht="12" customHeight="1"/>
+    <row r="47" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:I88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_random_info[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_random_info[生物随机信息] .xlsx
@@ -65,7 +65,7 @@
     <t>角色创建-骷髅</t>
   </si>
   <si>
-    <t>3040001-3040010,3050001-3050010,</t>
+    <t>3040000-3040010,3050001-3050010,</t>
   </si>
   <si>
     <t>角色创建-史莱姆</t>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
